--- a/Bitacoras/6.Final 27 Mayo/BITACORA ETAPA PRODUCTIVA.xlsx
+++ b/Bitacoras/6.Final 27 Mayo/BITACORA ETAPA PRODUCTIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferney.ruiz\Documents\GitHub\Files-Practice\Bitacoras\6.Final 27 Mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F4F2174E-871E-4647-8AE6-02F820AED18E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E6AA589-FF1D-4473-BF48-B7C5EECFEF69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="Hoja4" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$X$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$X$55</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
   </si>
@@ -267,9 +267,6 @@
     <t xml:space="preserve">msaavedra@lisim.com </t>
   </si>
   <si>
-    <t>Realizar la ETL de Retiros y Plan Happy, ademas de probarlas desde el aplicativo</t>
-  </si>
-  <si>
     <t>Realizar cargue SyR de ETB desde el aplicativo,ademas generar un archvivo de todas las tablas del gargue con un query top 10 de cada tabla</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t xml:space="preserve">Realizar cargues de SyR Asonbancria y Plan-happy ETB desde el aplicativo </t>
+  </si>
+  <si>
+    <t>Realizar la ETL de Retiros y Plan Happy, ademas de hacer el cargue desde el aplicativo</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -914,6 +914,114 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -923,123 +1031,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,6 +1060,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1176,18 +1179,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1609,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:N47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1744,28 +1735,28 @@
     <row r="5" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="149"/>
       <c r="C5" s="150"/>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="123"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1794,30 +1785,30 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" s="27" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1943,14 +1934,14 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="126">
+      <c r="E12" s="123">
         <v>1056592950</v>
       </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
       <c r="K12" s="35" t="s">
         <v>8</v>
       </c>
@@ -1967,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="T12" s="51">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="U12" s="51" t="s">
         <v>45</v>
@@ -2009,19 +2000,19 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="119" t="s">
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="117"/>
       <c r="N14" s="53">
         <v>27</v>
       </c>
@@ -2031,11 +2022,11 @@
       <c r="P14" s="53">
         <v>2018</v>
       </c>
-      <c r="Q14" s="124" t="s">
+      <c r="Q14" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="119"/>
-      <c r="S14" s="120"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="117"/>
       <c r="T14" s="51">
         <v>27</v>
       </c>
@@ -2149,11 +2140,11 @@
       <c r="J18" s="153"/>
       <c r="K18" s="154"/>
       <c r="L18" s="155"/>
-      <c r="M18" s="103" t="s">
+      <c r="M18" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
       <c r="P18" s="156"/>
       <c r="Q18" s="152" t="s">
         <v>60</v>
@@ -2241,30 +2232,30 @@
       <c r="W21" s="31"/>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2326,29 +2317,29 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="100" t="s">
+      <c r="F25" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="102"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="99"/>
       <c r="Q25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R25" s="100" t="s">
+      <c r="R25" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="102"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="99"/>
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,16 +2373,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
       <c r="L27" s="31" t="s">
         <v>20</v>
       </c>
@@ -2444,35 +2435,35 @@
         <v>22</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="103" t="s">
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="104"/>
-      <c r="L29" s="100" t="s">
+      <c r="K29" s="101"/>
+      <c r="L29" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="102"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="99"/>
       <c r="Q29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="100" t="s">
+      <c r="R29" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="102"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="99"/>
       <c r="W29" s="22"/>
     </row>
     <row r="30" spans="1:24" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2503,36 +2494,36 @@
       <c r="B31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="125" t="s">
+      <c r="C31" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="107" t="s">
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="108"/>
+      <c r="J31" s="105"/>
       <c r="K31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
       <c r="Q31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="162" t="s">
+      <c r="R31" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="S31" s="163"/>
-      <c r="T31" s="163"/>
-      <c r="U31" s="163"/>
-      <c r="V31" s="164"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="128"/>
       <c r="W31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2585,30 +2576,30 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2638,155 +2629,155 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="93" t="s">
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="99" t="s">
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="109" t="s">
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="T36" s="110"/>
-      <c r="U36" s="110"/>
-      <c r="V36" s="111"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="108"/>
       <c r="W36" s="23"/>
     </row>
     <row r="37" spans="1:24" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="95"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="98" t="s">
+      <c r="B37" s="92"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="98" t="s">
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="98"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="114"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="111"/>
       <c r="W37" s="23"/>
     </row>
     <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83" t="s">
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="83">
+        <v>43236</v>
+      </c>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="83">
+        <v>43238</v>
+      </c>
+      <c r="R38" s="84"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="114"/>
+      <c r="U38" s="114"/>
+      <c r="V38" s="115"/>
+      <c r="W38" s="23"/>
+    </row>
+    <row r="39" spans="1:24" s="4" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="86">
-        <v>43236</v>
-      </c>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="86">
-        <v>43238</v>
-      </c>
-      <c r="R38" s="87"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="23"/>
-    </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="80" t="s">
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="83">
+        <v>43241</v>
+      </c>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="83">
+        <v>43241</v>
+      </c>
+      <c r="R39" s="84"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="114"/>
+      <c r="U39" s="114"/>
+      <c r="V39" s="115"/>
+      <c r="W39" s="23"/>
+    </row>
+    <row r="40" spans="1:24" s="4" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83" t="s">
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="86">
-        <v>43241</v>
-      </c>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="86">
-        <v>43241</v>
-      </c>
-      <c r="R39" s="87"/>
-      <c r="S39" s="116"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="117"/>
-      <c r="V39" s="118"/>
-      <c r="W39" s="23"/>
-    </row>
-    <row r="40" spans="1:24" s="4" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="86">
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="83">
         <v>43242</v>
       </c>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="86">
+      <c r="P40" s="84"/>
+      <c r="Q40" s="83">
         <v>43242</v>
       </c>
-      <c r="R40" s="87"/>
+      <c r="R40" s="84"/>
       <c r="S40" s="55"/>
       <c r="T40" s="56"/>
       <c r="U40" s="56"/>
@@ -2794,31 +2785,31 @@
       <c r="W40" s="23"/>
     </row>
     <row r="41" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="86">
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="83">
         <v>43242</v>
       </c>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="86">
+      <c r="P41" s="84"/>
+      <c r="Q41" s="83">
         <v>43243</v>
       </c>
-      <c r="R41" s="87"/>
+      <c r="R41" s="84"/>
       <c r="S41" s="58"/>
       <c r="T41" s="59"/>
       <c r="U41" s="59"/>
@@ -2826,31 +2817,31 @@
       <c r="W41" s="23"/>
     </row>
     <row r="42" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="86">
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="83">
         <v>43243</v>
       </c>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="86">
+      <c r="P42" s="84"/>
+      <c r="Q42" s="83">
         <v>43244</v>
       </c>
-      <c r="R42" s="87"/>
+      <c r="R42" s="84"/>
       <c r="S42" s="61"/>
       <c r="T42" s="62"/>
       <c r="U42" s="64"/>
@@ -2858,63 +2849,63 @@
       <c r="W42" s="23"/>
     </row>
     <row r="43" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="83" t="s">
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="83">
+        <v>43245</v>
+      </c>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="83">
+        <v>43246</v>
+      </c>
+      <c r="R43" s="84"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="23"/>
+    </row>
+    <row r="44" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="86">
-        <v>43245</v>
-      </c>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="86">
-        <v>43246</v>
-      </c>
-      <c r="R43" s="87"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="23"/>
-    </row>
-    <row r="44" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="86">
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="83">
         <v>43248</v>
       </c>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="86">
+      <c r="P44" s="84"/>
+      <c r="Q44" s="83">
         <v>43249</v>
       </c>
-      <c r="R44" s="87"/>
+      <c r="R44" s="84"/>
       <c r="S44" s="65"/>
       <c r="T44" s="66"/>
       <c r="U44" s="64"/>
@@ -2922,231 +2913,202 @@
       <c r="W44" s="23"/>
     </row>
     <row r="45" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="83" t="s">
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="83">
+        <v>43250</v>
+      </c>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="83">
+        <v>43250</v>
+      </c>
+      <c r="R45" s="84"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="64"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="23"/>
+    </row>
+    <row r="46" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="86">
-        <v>43250</v>
-      </c>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="86">
-        <v>43250</v>
-      </c>
-      <c r="R45" s="87"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="75"/>
-      <c r="U45" s="64"/>
-      <c r="V45" s="76"/>
-      <c r="W45" s="23"/>
-    </row>
-    <row r="46" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="86">
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="83">
         <v>43251</v>
       </c>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="86">
+      <c r="P46" s="84"/>
+      <c r="Q46" s="83">
         <v>43251</v>
       </c>
-      <c r="R46" s="87"/>
-      <c r="S46" s="77"/>
-      <c r="T46" s="78"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="74"/>
+      <c r="T46" s="75"/>
       <c r="U46" s="64"/>
-      <c r="V46" s="79"/>
+      <c r="V46" s="76"/>
       <c r="W46" s="23"/>
     </row>
-    <row r="47" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="86">
-        <v>43235</v>
-      </c>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="86">
-        <v>43235</v>
-      </c>
-      <c r="R47" s="87"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="64"/>
-      <c r="V47" s="70"/>
-      <c r="W47" s="23"/>
-    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:24" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="31"/>
-    </row>
-    <row r="53" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="91" t="s">
+    <row r="51" spans="1:24" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="31"/>
+    </row>
+    <row r="52" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="91"/>
-      <c r="P53" s="91"/>
-      <c r="Q53" s="91"/>
-      <c r="R53" s="91"/>
-      <c r="S53" s="91"/>
-      <c r="T53" s="91"/>
-      <c r="U53" s="91"/>
-      <c r="V53" s="91"/>
-      <c r="W53" s="91"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="88"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="88"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="88"/>
+      <c r="V52" s="88"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="2"/>
+    </row>
+    <row r="53" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="2"/>
-    </row>
-    <row r="55" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="88" t="s">
+    <row r="54" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
-      <c r="O55" s="89"/>
-      <c r="P55" s="89"/>
-      <c r="Q55" s="89"/>
-      <c r="R55" s="89"/>
-      <c r="S55" s="89"/>
-      <c r="T55" s="89"/>
-      <c r="U55" s="89"/>
-      <c r="V55" s="90"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="86"/>
+      <c r="M54" s="86"/>
+      <c r="N54" s="86"/>
+      <c r="O54" s="86"/>
+      <c r="P54" s="86"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="86"/>
+      <c r="S54" s="86"/>
+      <c r="T54" s="86"/>
+      <c r="U54" s="86"/>
+      <c r="V54" s="87"/>
+      <c r="W54" s="23"/>
+    </row>
+    <row r="55" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
       <c r="W55" s="23"/>
     </row>
-    <row r="56" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25"/>
@@ -3207,23 +3169,7 @@
     <row r="114" x14ac:dyDescent="0.25"/>
     <row r="115" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="R31:V31"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:N43"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="F41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="F39:N39"/>
+  <mergeCells count="86">
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="B22:W22"/>
     <mergeCell ref="S27:V27"/>
@@ -3249,22 +3195,28 @@
     <mergeCell ref="D4:W4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="B7:W7"/>
-    <mergeCell ref="D5:W5"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:N47"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="R29:V29"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="F44:N44"/>
     <mergeCell ref="O44:P44"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:N43"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B7:W7"/>
+    <mergeCell ref="D5:W5"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E12:J12"/>
     <mergeCell ref="D29:I29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="Q43:R43"/>
@@ -3288,19 +3240,25 @@
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="O36:R36"/>
     <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="F39:N39"/>
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="F45:N45"/>
     <mergeCell ref="O45:P45"/>
     <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="B55:V55"/>
-    <mergeCell ref="B53:W53"/>
+    <mergeCell ref="B54:V54"/>
+    <mergeCell ref="B52:W52"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="F46:N46"/>
     <mergeCell ref="O46:P46"/>
     <mergeCell ref="Q46:R46"/>
   </mergeCells>
   <dataValidations xWindow="662" yWindow="599" count="1">
-    <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres_x000a_" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="F39:N41 F38 F42:F47" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres_x000a_" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="F39:N41 F38 F42:F46" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>200</formula1>
     </dataValidation>
   </dataValidations>
